--- a/data/trans_orig/P36B06-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14201</v>
+        <v>14703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34428</v>
+        <v>35371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03876312008343844</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02431160236022129</v>
+        <v>0.02517051181043778</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05893857972431581</v>
+        <v>0.06055228516023931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>14947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8635</v>
+        <v>8629</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24928</v>
+        <v>23298</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01622231515807127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009372586651387424</v>
+        <v>0.009366069907483109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02705538419319964</v>
+        <v>0.02528660633019734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -785,19 +785,19 @@
         <v>37590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27384</v>
+        <v>27391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54008</v>
+        <v>52088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02496826476212911</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01818954715080473</v>
+        <v>0.01819392417792124</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03587388152966648</v>
+        <v>0.03459834073920202</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>40909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30091</v>
+        <v>31037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54202</v>
+        <v>54515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07003197001848963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05151382738170348</v>
+        <v>0.05313351058959175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09278987357275409</v>
+        <v>0.09332502219900916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -835,19 +835,19 @@
         <v>25193</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16228</v>
+        <v>16146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37104</v>
+        <v>37187</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02734333712070649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01761363033925044</v>
+        <v>0.01752373548309724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04027124755306082</v>
+        <v>0.04036154144359962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -856,19 +856,19 @@
         <v>66102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50998</v>
+        <v>50528</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83722</v>
+        <v>85159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04390674881901589</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03387476728220352</v>
+        <v>0.03356250779418212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0556107688177375</v>
+        <v>0.05656502654993334</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>99277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82197</v>
+        <v>82853</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118715</v>
+        <v>118311</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1699532207617898</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1407137259501198</v>
+        <v>0.141837246403169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2032294487256202</v>
+        <v>0.2025386117018779</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -906,19 +906,19 @@
         <v>122303</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103574</v>
+        <v>101903</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145697</v>
+        <v>143924</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1327425639423151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1124151603145781</v>
+        <v>0.110601222926078</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1581334400874582</v>
+        <v>0.1562086207555288</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>218</v>
@@ -927,19 +927,19 @@
         <v>221580</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>194960</v>
+        <v>195183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252129</v>
+        <v>249391</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1471804924171216</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1294987099566884</v>
+        <v>0.1296467759402341</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1674718261316275</v>
+        <v>0.1656530589411287</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>147794</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125984</v>
+        <v>126969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169126</v>
+        <v>168348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2530101701503785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2156745656383953</v>
+        <v>0.217360048164078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2895299093903712</v>
+        <v>0.2881974024833058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -977,19 +977,19 @@
         <v>249618</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>218649</v>
+        <v>223867</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>277219</v>
+        <v>277769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2709243828873501</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2373118686752946</v>
+        <v>0.2429756911807105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.300881319909618</v>
+        <v>0.3014778368423579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -998,19 +998,19 @@
         <v>397412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>360763</v>
+        <v>364439</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>429938</v>
+        <v>434108</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2639735751272598</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.239630255169226</v>
+        <v>0.2420718205561174</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2855786741649043</v>
+        <v>0.2883484594624198</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>273519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>248512</v>
+        <v>250857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>299388</v>
+        <v>299855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4682415189859036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4254318269257701</v>
+        <v>0.4294455531056093</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5125271311461983</v>
+        <v>0.5133267047249651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>487</v>
@@ -1048,19 +1048,19 @@
         <v>509296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>477194</v>
+        <v>478904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539579</v>
+        <v>542237</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5527674008915571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5179256152928202</v>
+        <v>0.5197816612531371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5856354290745653</v>
+        <v>0.5885196810778699</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>757</v>
@@ -1069,19 +1069,19 @@
         <v>782816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>744452</v>
+        <v>741360</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>822130</v>
+        <v>823716</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5199709188744737</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4944887796608873</v>
+        <v>0.4924346091123835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5460844063195139</v>
+        <v>0.5471379784894063</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>21843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14087</v>
+        <v>14374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32360</v>
+        <v>31952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02029858553733359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01309125848979998</v>
+        <v>0.0133581873177493</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03007247394017188</v>
+        <v>0.02969302951720971</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1194,19 +1194,19 @@
         <v>24004</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16134</v>
+        <v>15795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36934</v>
+        <v>35745</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02269789297763391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01525635505181413</v>
+        <v>0.01493569584502312</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03492478413002977</v>
+        <v>0.03380058309676964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1215,19 +1215,19 @@
         <v>45846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32756</v>
+        <v>34545</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60893</v>
+        <v>60888</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02148782263337192</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01535236318512055</v>
+        <v>0.01619078896905201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02854002791753751</v>
+        <v>0.02853764277008834</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>72367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57360</v>
+        <v>56387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88482</v>
+        <v>88657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06725144899657344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05330523095264383</v>
+        <v>0.05240110432443321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08222783295738977</v>
+        <v>0.08239004405492181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1265,19 +1265,19 @@
         <v>34944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24685</v>
+        <v>25102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48734</v>
+        <v>48423</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0330431251361878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02334189276047762</v>
+        <v>0.02373610119763515</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04608208170602617</v>
+        <v>0.0457885628154248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -1286,19 +1286,19 @@
         <v>107311</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89799</v>
+        <v>87254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132027</v>
+        <v>129857</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05029580294440619</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04208814887180806</v>
+        <v>0.04089501496124234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06187970411688956</v>
+        <v>0.06086281967064478</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>169295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>147362</v>
+        <v>145079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194168</v>
+        <v>194972</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1573283533633904</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1369452792000783</v>
+        <v>0.1348236157998835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1804424774555853</v>
+        <v>0.1811897724478479</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>136</v>
@@ -1336,19 +1336,19 @@
         <v>138729</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>119869</v>
+        <v>120440</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>162319</v>
+        <v>162027</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1311814545533754</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1133470195510029</v>
+        <v>0.1138871660017717</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1534877282294755</v>
+        <v>0.1532116967937128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>300</v>
@@ -1357,19 +1357,19 @@
         <v>308025</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>278788</v>
+        <v>278358</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>341696</v>
+        <v>343514</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1443684210558667</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.130665517275128</v>
+        <v>0.1304640958343178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1601497829253379</v>
+        <v>0.1610020232397904</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>344631</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>314407</v>
+        <v>314722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>376394</v>
+        <v>377365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.32026967006266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2921827680625132</v>
+        <v>0.2924751331443375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3497873298987519</v>
+        <v>0.3506897692557803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -1407,19 +1407,19 @@
         <v>287318</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>259773</v>
+        <v>258888</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>317558</v>
+        <v>314032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2716860719389535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2456396152336606</v>
+        <v>0.2448026876212238</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3002807655699463</v>
+        <v>0.29694630400028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>613</v>
@@ -1428,19 +1428,19 @@
         <v>631949</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>589508</v>
+        <v>589180</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>677913</v>
+        <v>673441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2961887973169406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2762972513247379</v>
+        <v>0.27614347490552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3177315924948323</v>
+        <v>0.3156355296723558</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>467929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>434854</v>
+        <v>433380</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500589</v>
+        <v>499068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4348519420400425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4041154378342966</v>
+        <v>0.4027455495676246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4652041565041499</v>
+        <v>0.4637900928939883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>556</v>
@@ -1478,19 +1478,19 @@
         <v>572542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>541122</v>
+        <v>540895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>605957</v>
+        <v>604982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5413914553938494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5116805944650797</v>
+        <v>0.5114664691018466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5729884001858575</v>
+        <v>0.5720667147977594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1018</v>
@@ -1499,19 +1499,19 @@
         <v>1040471</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>991964</v>
+        <v>995954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1081850</v>
+        <v>1086732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4876591560494147</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4649247395212874</v>
+        <v>0.4667947089771408</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5070534231690325</v>
+        <v>0.5093413282975762</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>19078</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11600</v>
+        <v>11711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29453</v>
+        <v>30384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0170098428494471</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01034215370104215</v>
+        <v>0.01044139500987044</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02625960946006894</v>
+        <v>0.02708977386681553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1624,19 +1624,19 @@
         <v>14312</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8437</v>
+        <v>8505</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23741</v>
+        <v>23523</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.014414522736187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00849781482963536</v>
+        <v>0.008565681034908115</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02391134711370273</v>
+        <v>0.02369152025365852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1645,19 +1645,19 @@
         <v>33390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23754</v>
+        <v>23121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47540</v>
+        <v>46453</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01579117539447246</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01123400328199087</v>
+        <v>0.01093470390569489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02248331034328777</v>
+        <v>0.02196882593302167</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>56829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43020</v>
+        <v>44318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73540</v>
+        <v>72864</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05066801832337645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03835624539554609</v>
+        <v>0.03951377953648203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06556718362874092</v>
+        <v>0.06496441065465003</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1695,19 +1695,19 @@
         <v>28958</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19572</v>
+        <v>19666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40802</v>
+        <v>40946</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02916536476797338</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01971284407707493</v>
+        <v>0.0198071784055478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.041095027425142</v>
+        <v>0.04124008278525287</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -1716,19 +1716,19 @@
         <v>85787</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69155</v>
+        <v>69920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106665</v>
+        <v>104521</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04057115822905546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03270531830872587</v>
+        <v>0.03306711875888825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05044536141295927</v>
+        <v>0.04943102624923585</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>172550</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>149011</v>
+        <v>149231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197322</v>
+        <v>198088</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1538435017387272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1328560792503924</v>
+        <v>0.1330526700956892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1759301160155889</v>
+        <v>0.1766128359358558</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>134</v>
@@ -1766,19 +1766,19 @@
         <v>132797</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>113808</v>
+        <v>113525</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>156617</v>
+        <v>155145</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.133749321105893</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1146239045913551</v>
+        <v>0.1143392805984491</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.157740264987254</v>
+        <v>0.1562576453110591</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>305</v>
@@ -1787,19 +1787,19 @@
         <v>305347</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>271683</v>
+        <v>275532</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>340705</v>
+        <v>337175</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1444080090430473</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1284871137789496</v>
+        <v>0.1303075890912891</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1611300461445664</v>
+        <v>0.1594606559645514</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>301195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>273879</v>
+        <v>273602</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>332071</v>
+        <v>335959</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2685419526515717</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.24418691350929</v>
+        <v>0.2439401668261679</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2960704995810655</v>
+        <v>0.2995367463625423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>232</v>
@@ -1837,19 +1837,19 @@
         <v>233550</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>208099</v>
+        <v>206106</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>261741</v>
+        <v>261200</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2352243409779909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2095914387709698</v>
+        <v>0.2075836921412276</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2636175593162615</v>
+        <v>0.2630734454145297</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>522</v>
@@ -1858,19 +1858,19 @@
         <v>534745</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>497568</v>
+        <v>492679</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>575140</v>
+        <v>576717</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2528972201129436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2353152384157827</v>
+        <v>0.2330031495909096</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2720015282128487</v>
+        <v>0.2727471284198132</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>571942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>540437</v>
+        <v>537491</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>606103</v>
+        <v>606041</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5099366844368776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4818476856767058</v>
+        <v>0.4792206420258063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5403942626601872</v>
+        <v>0.5403388855782166</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>571</v>
@@ -1908,19 +1908,19 @@
         <v>583264</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>549560</v>
+        <v>553930</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>613140</v>
+        <v>615690</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5874464504119556</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5535007677301125</v>
+        <v>0.5579024882838216</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6175372307150624</v>
+        <v>0.6201050525437343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1138</v>
@@ -1929,19 +1929,19 @@
         <v>1155206</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1107546</v>
+        <v>1106933</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1203046</v>
+        <v>1200436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5463324372204812</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5237926535071737</v>
+        <v>0.5235025946799597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5689576767404066</v>
+        <v>0.5677233310324301</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>9599</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4606</v>
+        <v>3953</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19699</v>
+        <v>18857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02146380914895652</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0102999581090523</v>
+        <v>0.008838894585593985</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04404855531944245</v>
+        <v>0.04216597908174984</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2054,19 +2054,19 @@
         <v>8830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4029</v>
+        <v>4168</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16223</v>
+        <v>16961</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02588187214429095</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01180940698185335</v>
+        <v>0.01221594158849309</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04755215716655969</v>
+        <v>0.04971486299340407</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2075,19 +2075,19 @@
         <v>18428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11106</v>
+        <v>11098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28906</v>
+        <v>29331</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02337570523959377</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01408703578159485</v>
+        <v>0.01407772681311906</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03666621374673117</v>
+        <v>0.03720573417095547</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>14282</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8027</v>
+        <v>8162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22754</v>
+        <v>23476</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03193549843674586</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01794974491791521</v>
+        <v>0.01825180759425724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0508821129520308</v>
+        <v>0.05249467394238109</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2125,19 +2125,19 @@
         <v>16645</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9454</v>
+        <v>9752</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25692</v>
+        <v>27668</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04878870205902025</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0277106436968194</v>
+        <v>0.02858580633311782</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07530766236061966</v>
+        <v>0.08109944439499668</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -2146,19 +2146,19 @@
         <v>30926</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21489</v>
+        <v>21632</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44425</v>
+        <v>43919</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03922864345395513</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02725730044518965</v>
+        <v>0.02743955023305778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05635188558673009</v>
+        <v>0.05570986454750636</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>68032</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54222</v>
+        <v>52512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84266</v>
+        <v>83744</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1521287247524262</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1212487740607184</v>
+        <v>0.117424991613172</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1884307409439877</v>
+        <v>0.1872632406253109</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2196,19 +2196,19 @@
         <v>45748</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34669</v>
+        <v>34527</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>59827</v>
+        <v>58352</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1340954892104001</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1016212047641043</v>
+        <v>0.1012056311904871</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1753631869699342</v>
+        <v>0.1710424093534922</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>113</v>
@@ -2217,19 +2217,19 @@
         <v>113780</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>94987</v>
+        <v>96633</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>133727</v>
+        <v>136022</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.144324926442907</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1204872453848746</v>
+        <v>0.1225746255872345</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1696277891060555</v>
+        <v>0.1725388716932584</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>137695</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118833</v>
+        <v>118477</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157599</v>
+        <v>157608</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3079049838367511</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2657267541237567</v>
+        <v>0.2649306668510288</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3524123380391354</v>
+        <v>0.3524324176829375</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -2267,19 +2267,19 @@
         <v>80580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64856</v>
+        <v>66453</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96609</v>
+        <v>98125</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2361955677650152</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1901041950331246</v>
+        <v>0.1947875192602127</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2831791856947887</v>
+        <v>0.287622890066253</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>216</v>
@@ -2288,19 +2288,19 @@
         <v>218275</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>193061</v>
+        <v>193733</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>243122</v>
+        <v>245096</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2768730695353449</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2448901132666958</v>
+        <v>0.2457422209183234</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3083903727012346</v>
+        <v>0.3108939911007599</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>217593</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>195188</v>
+        <v>197863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>240319</v>
+        <v>238237</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4865669838251203</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4364668162015404</v>
+        <v>0.4424494412270837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5373854938609883</v>
+        <v>0.5327292404790658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>187</v>
@@ -2338,19 +2338,19 @@
         <v>189356</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>171298</v>
+        <v>170323</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>206728</v>
+        <v>207166</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5550383688212734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5021061829043391</v>
+        <v>0.4992483654643582</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6059584046419993</v>
+        <v>0.6072437535760998</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>399</v>
@@ -2359,19 +2359,19 @@
         <v>406949</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>379931</v>
+        <v>376496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>434029</v>
+        <v>434533</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5161976553281993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4819273500680843</v>
+        <v>0.4775694469121612</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5505477971697346</v>
+        <v>0.5511876363926929</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>73162</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57429</v>
+        <v>57216</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>92184</v>
+        <v>92204</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0226579391112316</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0177854244524125</v>
+        <v>0.0177195063025576</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02854883234593198</v>
+        <v>0.02855513158437313</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>61</v>
@@ -2484,19 +2484,19 @@
         <v>62092</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>49083</v>
+        <v>48452</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>80969</v>
+        <v>77807</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01874234305275342</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01481572125013519</v>
+        <v>0.01462496841446674</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02444013551539233</v>
+        <v>0.02348579881787282</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>131</v>
@@ -2505,19 +2505,19 @@
         <v>135255</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>113713</v>
+        <v>112819</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>160918</v>
+        <v>158740</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02067502227456307</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01738213057709921</v>
+        <v>0.01724551203573299</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02459800762769369</v>
+        <v>0.0242649875791005</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>184386</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>162471</v>
+        <v>158896</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>215262</v>
+        <v>211761</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05710312114234031</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05031634080153231</v>
+        <v>0.04920913184035527</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06666513204366958</v>
+        <v>0.06558114867913577</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>103</v>
@@ -2555,19 +2555,19 @@
         <v>105740</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>87828</v>
+        <v>87441</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127483</v>
+        <v>126700</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03191724636870438</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02651059008330948</v>
+        <v>0.02639370413457499</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03848029993600544</v>
+        <v>0.03824409280075484</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>285</v>
@@ -2576,19 +2576,19 @@
         <v>290126</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>258543</v>
+        <v>259262</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>322667</v>
+        <v>327361</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04434861470474878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03952086709888428</v>
+        <v>0.03963084294349156</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04932289693739745</v>
+        <v>0.05004041135501255</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>509154</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>467985</v>
+        <v>471948</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>547758</v>
+        <v>551336</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1576816658744359</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1449318363352866</v>
+        <v>0.1461591012350235</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.169636982402413</v>
+        <v>0.1707450767759177</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>435</v>
@@ -2626,19 +2626,19 @@
         <v>439577</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>404170</v>
+        <v>400941</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>481062</v>
+        <v>476707</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.132685278755959</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1219977130210323</v>
+        <v>0.121023092361667</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1452071569595085</v>
+        <v>0.1438927736344502</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>936</v>
@@ -2647,19 +2647,19 @@
         <v>948731</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>889357</v>
+        <v>891663</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1007427</v>
+        <v>1002495</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1450231188402517</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1359471948959846</v>
+        <v>0.136299576345508</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1539953136309372</v>
+        <v>0.1532413520584434</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>931314</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>880749</v>
+        <v>875924</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>986178</v>
+        <v>985649</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2884220143540869</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2727623913735513</v>
+        <v>0.2712679465714498</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3054129360010051</v>
+        <v>0.3052491884118514</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>832</v>
@@ -2697,19 +2697,19 @@
         <v>851066</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>800265</v>
+        <v>800464</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>902079</v>
+        <v>900040</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2568919986712888</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2415577776544263</v>
+        <v>0.2416177902457584</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2722902196803655</v>
+        <v>0.2716746151350145</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1734</v>
@@ -2718,19 +2718,19 @@
         <v>1782380</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1713818</v>
+        <v>1706979</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1853034</v>
+        <v>1854636</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.272454739378807</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2619742935455661</v>
+        <v>0.2609289447911446</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2832548920769666</v>
+        <v>0.2834997251537313</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>1530982</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1477309</v>
+        <v>1470533</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1592571</v>
+        <v>1591053</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4741352595179053</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.45751314526483</v>
+        <v>0.4554144269454495</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4932087783293152</v>
+        <v>0.4927388134353507</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1801</v>
@@ -2768,19 +2768,19 @@
         <v>1854458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1800502</v>
+        <v>1797141</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1908902</v>
+        <v>1909761</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5597631331512944</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5434768391034454</v>
+        <v>0.5424622220007979</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5761970642142411</v>
+        <v>0.5764562432093612</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3312</v>
@@ -2789,19 +2789,19 @@
         <v>3385440</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3307469</v>
+        <v>3302482</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3465897</v>
+        <v>3466690</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5174985048016295</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5055798557465678</v>
+        <v>0.5048175596510193</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5297970854661845</v>
+        <v>0.5299184260314435</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>40405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28724</v>
+        <v>29107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54418</v>
+        <v>53779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03878200615271184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02757001666640461</v>
+        <v>0.02793783266855171</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05223205816114354</v>
+        <v>0.05161871620455345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3154,19 +3154,19 @@
         <v>26483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17062</v>
+        <v>17360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38989</v>
+        <v>39073</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02367193575871818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01525087345422081</v>
+        <v>0.015517155648895</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03485024341833906</v>
+        <v>0.03492532446712093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -3175,19 +3175,19 @@
         <v>66888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51227</v>
+        <v>51799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86067</v>
+        <v>86153</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03095808714778952</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02370939135081718</v>
+        <v>0.02397449638369434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03983450891051284</v>
+        <v>0.03987426956499215</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>43476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32016</v>
+        <v>30905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59406</v>
+        <v>56288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04172989193614849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0307299333751149</v>
+        <v>0.02966334122542437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05701912696163085</v>
+        <v>0.05402647769684314</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -3225,19 +3225,19 @@
         <v>43061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30910</v>
+        <v>30874</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58637</v>
+        <v>58305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03848994398423526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02762874367167742</v>
+        <v>0.02759669021308776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05241303811976335</v>
+        <v>0.0521159729404243</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -3246,19 +3246,19 @@
         <v>86537</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68537</v>
+        <v>69284</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107534</v>
+        <v>107470</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04005226306381647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03172140669167219</v>
+        <v>0.0320670087053861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04977031045133095</v>
+        <v>0.04974087243025404</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>143161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119847</v>
+        <v>121476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>166155</v>
+        <v>166311</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.137409488640525</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1150321755833532</v>
+        <v>0.1165957746528972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1594804392513864</v>
+        <v>0.1596301628641871</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -3296,19 +3296,19 @@
         <v>110034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90628</v>
+        <v>91969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>133374</v>
+        <v>130882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09835463255053611</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08100809172988703</v>
+        <v>0.08220730075921999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1192172732231843</v>
+        <v>0.116989529045579</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>240</v>
@@ -3317,19 +3317,19 @@
         <v>253195</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>224312</v>
+        <v>223439</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>282870</v>
+        <v>285386</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1171870791593334</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1038188387024533</v>
+        <v>0.1034151413230213</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1309215830899958</v>
+        <v>0.1320859446069368</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>261229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>232968</v>
+        <v>232988</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291554</v>
+        <v>291979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2507347933812284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2236088442707929</v>
+        <v>0.2236279556884866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2798419445495056</v>
+        <v>0.2802497457820687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -3367,19 +3367,19 @@
         <v>250430</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221535</v>
+        <v>221893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>281571</v>
+        <v>280368</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2238480695306834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1980200720027313</v>
+        <v>0.1983397852814376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2516839536266594</v>
+        <v>0.2506081484884475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>473</v>
@@ -3388,19 +3388,19 @@
         <v>511659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>471500</v>
+        <v>472720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>551268</v>
+        <v>553120</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.236812982017729</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2182260353343481</v>
+        <v>0.218790675019242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2551451815998633</v>
+        <v>0.256002139300095</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>553583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>521432</v>
+        <v>521479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>584963</v>
+        <v>585205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5313438198893863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.500484891063687</v>
+        <v>0.5005293596767101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5614636420478761</v>
+        <v>0.5616954709892666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>640</v>
@@ -3438,19 +3438,19 @@
         <v>688742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>654523</v>
+        <v>654255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>726421</v>
+        <v>722395</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.615635418175827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5850482076082274</v>
+        <v>0.584809365579395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6493152150945996</v>
+        <v>0.6457162053441476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1152</v>
@@ -3459,19 +3459,19 @@
         <v>1242325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1195319</v>
+        <v>1190665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1289318</v>
+        <v>1293255</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5749895886113316</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5532336124049021</v>
+        <v>0.5510793003296047</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5967393468604008</v>
+        <v>0.5985614413935874</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>15147</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9325</v>
+        <v>8927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23407</v>
+        <v>24388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01551830504450903</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009553688815649115</v>
+        <v>0.009146027300285839</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02397988681844056</v>
+        <v>0.02498489925590851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3584,19 +3584,19 @@
         <v>24708</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15626</v>
+        <v>15986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38135</v>
+        <v>37352</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02260244658493255</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01429403804464738</v>
+        <v>0.01462388526841672</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0348851835394513</v>
+        <v>0.03416895236399443</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -3605,19 +3605,19 @@
         <v>39855</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28143</v>
+        <v>28257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54953</v>
+        <v>54756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01926077836001246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01360041434121789</v>
+        <v>0.01365561103026529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02655690334823601</v>
+        <v>0.02646171738081018</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>34768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25450</v>
+        <v>24649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49794</v>
+        <v>47700</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03561913261644711</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02607355406349402</v>
+        <v>0.02525291406247616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05101396496524521</v>
+        <v>0.04886876523498872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -3655,19 +3655,19 @@
         <v>27357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18323</v>
+        <v>18183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41449</v>
+        <v>41223</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02502533344249801</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01676098103119484</v>
+        <v>0.0166336798078969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03791681245266593</v>
+        <v>0.03770983372342491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -3676,19 +3676,19 @@
         <v>62124</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47768</v>
+        <v>47146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80782</v>
+        <v>81231</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03002254614339698</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0230844837215065</v>
+        <v>0.02278391741949558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03903909105862105</v>
+        <v>0.03925629313831418</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>103626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84959</v>
+        <v>84490</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126736</v>
+        <v>125055</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1061645913726633</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08704047525813062</v>
+        <v>0.08655997521922103</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1298399365730051</v>
+        <v>0.1281180528388488</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -3726,19 +3726,19 @@
         <v>89330</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71758</v>
+        <v>71103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>110394</v>
+        <v>109535</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08171686633618455</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06564269639598794</v>
+        <v>0.06504309243138655</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.10098585508418</v>
+        <v>0.1001996707643525</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>180</v>
@@ -3747,19 +3747,19 @@
         <v>192956</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>167464</v>
+        <v>165770</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>222591</v>
+        <v>218831</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09324912969650982</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08092955709527534</v>
+        <v>0.08011099701149593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1075704822251968</v>
+        <v>0.1057535732180773</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>224421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198820</v>
+        <v>200088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>253726</v>
+        <v>251208</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2299178451372067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2036897725957694</v>
+        <v>0.2049892240713952</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2599405633080206</v>
+        <v>0.2573613324438702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>192</v>
@@ -3797,19 +3797,19 @@
         <v>202208</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>178775</v>
+        <v>176434</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230135</v>
+        <v>230442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1849743883349231</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1635384765022181</v>
+        <v>0.1613969962422524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2105215515130203</v>
+        <v>0.2108025065342404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>402</v>
@@ -3818,19 +3818,19 @@
         <v>426628</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388915</v>
+        <v>391437</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>464220</v>
+        <v>468006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2061747159479821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1879492313524089</v>
+        <v>0.1891678529457917</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2243417074839582</v>
+        <v>0.2261710151246489</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>598129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564148</v>
+        <v>565074</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>629166</v>
+        <v>627481</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6127801258291738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5779667646362521</v>
+        <v>0.5789148123548367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.644577411486166</v>
+        <v>0.6428513519106446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>701</v>
@@ -3868,19 +3868,19 @@
         <v>749562</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>716128</v>
+        <v>717279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>780294</v>
+        <v>781907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6856809653014618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6550961558044207</v>
+        <v>0.6561485514817725</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7137937149959888</v>
+        <v>0.7152694046386578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1265</v>
@@ -3889,19 +3889,19 @@
         <v>1347691</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1302966</v>
+        <v>1304247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1393589</v>
+        <v>1391106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6512928298520986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6296786492587616</v>
+        <v>0.6302981005516279</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6734737348052949</v>
+        <v>0.6722736283483236</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>11566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6227</v>
+        <v>6275</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20447</v>
+        <v>20591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01308193670291304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007043192453906484</v>
+        <v>0.007096714250188984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02312565684607501</v>
+        <v>0.02328895263347293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4014,19 +4014,19 @@
         <v>11118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5308</v>
+        <v>5905</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19310</v>
+        <v>19644</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01270911206709337</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006067721427791623</v>
+        <v>0.006750142833743192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02207325609625485</v>
+        <v>0.02245538463504349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -4035,19 +4035,19 @@
         <v>22685</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14433</v>
+        <v>14679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32931</v>
+        <v>33225</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01289651490504441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008205170679037442</v>
+        <v>0.008345481175240931</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0187219072900059</v>
+        <v>0.01888869353538881</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>18851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11128</v>
+        <v>11009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30770</v>
+        <v>30961</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02132125113732683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01258604873287618</v>
+        <v>0.01245168798937808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03480119885687896</v>
+        <v>0.0350175659658814</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -4085,19 +4085,19 @@
         <v>17914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10993</v>
+        <v>10939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27861</v>
+        <v>27876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02047754116807896</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01256611594436622</v>
+        <v>0.01250477447937606</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03184778818569062</v>
+        <v>0.0318656311663072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -4106,19 +4106,19 @@
         <v>36765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26534</v>
+        <v>26079</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51356</v>
+        <v>50653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02090163772032803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01508509203702848</v>
+        <v>0.01482610946318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0291966938324322</v>
+        <v>0.02879694124728025</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>90090</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71720</v>
+        <v>74315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109096</v>
+        <v>110059</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1018932370968986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08111721776653408</v>
+        <v>0.08405176148229918</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.123390214580998</v>
+        <v>0.1244793509646345</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -4156,19 +4156,19 @@
         <v>51055</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36838</v>
+        <v>37554</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65671</v>
+        <v>65343</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05836080081488492</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04210946038901075</v>
+        <v>0.04292800625552257</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07506878708242087</v>
+        <v>0.07469449383714141</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -4177,19 +4177,19 @@
         <v>141144</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119057</v>
+        <v>121589</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>166284</v>
+        <v>168283</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08024267587991735</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06768592380654101</v>
+        <v>0.06912507887604491</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09453497512524418</v>
+        <v>0.09567127549278687</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>213138</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185886</v>
+        <v>186724</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>239433</v>
+        <v>239846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2410638370457675</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.210241556577426</v>
+        <v>0.2111892052132741</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2708040990190836</v>
+        <v>0.2712708134006158</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -4227,19 +4227,19 @@
         <v>178751</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155691</v>
+        <v>155745</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>205396</v>
+        <v>204758</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2043312162979783</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1779709497824359</v>
+        <v>0.1780327372564866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2347888962687129</v>
+        <v>0.234060394788267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>364</v>
@@ -4248,19 +4248,19 @@
         <v>391889</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>354726</v>
+        <v>355634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>428155</v>
+        <v>427677</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2227951178542172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2016672925651306</v>
+        <v>0.2021833825671848</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2434127830083322</v>
+        <v>0.2431412954974661</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>550511</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>519700</v>
+        <v>521896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>578114</v>
+        <v>580289</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.622639738017094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5877919421976647</v>
+        <v>0.5902758002289935</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6538592242208343</v>
+        <v>0.6563197350926884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>577</v>
@@ -4298,19 +4298,19 @@
         <v>615972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>586597</v>
+        <v>590555</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>643535</v>
+        <v>645897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7041213296519644</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6705423896931935</v>
+        <v>0.6750662955710995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7356281124209478</v>
+        <v>0.7383283927173584</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1092</v>
@@ -4319,19 +4319,19 @@
         <v>1166483</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1126573</v>
+        <v>1127693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1210074</v>
+        <v>1207618</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.663164053640493</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6404743205752498</v>
+        <v>0.6411112526693998</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6879459875136243</v>
+        <v>0.6865501751229718</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>7624</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3060</v>
+        <v>3665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13733</v>
+        <v>14874</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01518844373503702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006095642366638157</v>
+        <v>0.007301179147793611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02735727696205439</v>
+        <v>0.02962967106681335</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4444,19 +4444,19 @@
         <v>5122</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10847</v>
+        <v>11313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01141712863714616</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004456873182655405</v>
+        <v>0.004464879568695946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02417558041471697</v>
+        <v>0.02521471576269703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4468,16 +4468,16 @@
         <v>7009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21723</v>
+        <v>21394</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01340855305252448</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007373043859815595</v>
+        <v>0.007373115075577687</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02285051495081461</v>
+        <v>0.02250448697749543</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>11660</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6050</v>
+        <v>6398</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19477</v>
+        <v>20106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02322818479501607</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01205233111716534</v>
+        <v>0.01274575331233891</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03880108157592181</v>
+        <v>0.04005364537270777</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -4515,19 +4515,19 @@
         <v>7132</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2794</v>
+        <v>2897</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15147</v>
+        <v>15313</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0158966682207039</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006226802807250799</v>
+        <v>0.006457342288042826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0337612585698627</v>
+        <v>0.0341310861632504</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -4536,19 +4536,19 @@
         <v>18792</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11328</v>
+        <v>11796</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29406</v>
+        <v>29672</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01976803954048605</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01191578448898887</v>
+        <v>0.01240887557039214</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03093255551232512</v>
+        <v>0.03121226091813543</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>46039</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33002</v>
+        <v>34338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60364</v>
+        <v>59297</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09171490577106273</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0657435803832787</v>
+        <v>0.06840492252407332</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1202513581234392</v>
+        <v>0.1181264646855036</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -4586,19 +4586,19 @@
         <v>20863</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13122</v>
+        <v>13787</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31174</v>
+        <v>31727</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04650151776042254</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02924732165665769</v>
+        <v>0.03072990019165264</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06948174650034539</v>
+        <v>0.07071517891076098</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -4607,19 +4607,19 @@
         <v>66903</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51091</v>
+        <v>51133</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>81744</v>
+        <v>83045</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07037622524289135</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05374330997965725</v>
+        <v>0.05378747384818046</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0859887180850482</v>
+        <v>0.08735639314756012</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>109410</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90970</v>
+        <v>90542</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>128751</v>
+        <v>130818</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2179563473000898</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1812211074244132</v>
+        <v>0.1803685381131311</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2564848312417977</v>
+        <v>0.2606029651916178</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -4657,19 +4657,19 @@
         <v>68749</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54429</v>
+        <v>54578</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86490</v>
+        <v>87527</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1532311329110317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1213150827349792</v>
+        <v>0.1216459542350239</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1927738343545404</v>
+        <v>0.1950861099262594</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>160</v>
@@ -4678,19 +4678,19 @@
         <v>178159</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>150825</v>
+        <v>154212</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>203585</v>
+        <v>203809</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1874089644841752</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1586563447042955</v>
+        <v>0.1622189540538481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2141549447339096</v>
+        <v>0.2143911715997024</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>327248</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>305671</v>
+        <v>304083</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>351330</v>
+        <v>348938</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6519121183987944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6089289718498145</v>
+        <v>0.605763945148984</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6998864449681684</v>
+        <v>0.6951214886690338</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>316</v>
@@ -4728,19 +4728,19 @@
         <v>346793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>326421</v>
+        <v>328583</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>364488</v>
+        <v>365346</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7729535524706957</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7275464442127035</v>
+        <v>0.7323653902895998</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8123933138089187</v>
+        <v>0.8143047563574464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>613</v>
@@ -4749,19 +4749,19 @@
         <v>674042</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>645279</v>
+        <v>647222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>701920</v>
+        <v>703085</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7090382176799229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6787828624141141</v>
+        <v>0.6808260533434418</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7383641511721731</v>
+        <v>0.7395894626852496</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>74743</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59058</v>
+        <v>58751</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94230</v>
+        <v>95068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02195694705447337</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01734927743230246</v>
+        <v>0.01725900274135201</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0276815521407403</v>
+        <v>0.02792768964070661</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>61</v>
@@ -4874,19 +4874,19 @@
         <v>67432</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>52058</v>
+        <v>52318</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>86600</v>
+        <v>87142</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01907335354622826</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01472470513584326</v>
+        <v>0.01479829937855582</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0244951989774478</v>
+        <v>0.02464854734929458</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>134</v>
@@ -4895,19 +4895,19 @@
         <v>142175</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>118790</v>
+        <v>118850</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>169774</v>
+        <v>167888</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02048787005524875</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01711796846089973</v>
+        <v>0.01712665985643977</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02446494637901046</v>
+        <v>0.02419321447719592</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>108755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>88216</v>
+        <v>89286</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>130958</v>
+        <v>130290</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03194851957448046</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02591485023452259</v>
+        <v>0.02622918868240936</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03847084458327253</v>
+        <v>0.03827468885645424</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -4945,19 +4945,19 @@
         <v>95464</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>77399</v>
+        <v>75036</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117675</v>
+        <v>118790</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02700232168908841</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0218927885177443</v>
+        <v>0.02122426839175598</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03328494478705764</v>
+        <v>0.03360019780155735</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>190</v>
@@ -4966,19 +4966,19 @@
         <v>204219</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178056</v>
+        <v>176461</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>238877</v>
+        <v>236394</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02942862711173696</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02565844023420871</v>
+        <v>0.02542866186941585</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03442291522032837</v>
+        <v>0.0340651137498888</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>382916</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>347577</v>
+        <v>345244</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>419328</v>
+        <v>415980</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1124871765926392</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1021057699090364</v>
+        <v>0.1014205813917269</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1231838413990155</v>
+        <v>0.1222003259146586</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>254</v>
@@ -5016,19 +5016,19 @@
         <v>271282</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>242146</v>
+        <v>239362</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>302899</v>
+        <v>304720</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0767334382610422</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06849202897431281</v>
+        <v>0.06770455893026436</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08567643701365051</v>
+        <v>0.08619141706065563</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>621</v>
@@ -5037,19 +5037,19 @@
         <v>654198</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>604390</v>
+        <v>609899</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>698485</v>
+        <v>702105</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09427205907726846</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08709460548928304</v>
+        <v>0.08788845048429891</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1006539787052837</v>
+        <v>0.1011756697885854</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>808198</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>757877</v>
+        <v>757491</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>857612</v>
+        <v>859725</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2374201796171972</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2226375913029462</v>
+        <v>0.2225243723577805</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2519362031728062</v>
+        <v>0.2525570429594385</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>643</v>
@@ -5087,19 +5087,19 @@
         <v>700137</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>645814</v>
+        <v>650602</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>745975</v>
+        <v>751532</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1980370533667627</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1826715670599562</v>
+        <v>0.1840257495037332</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2110026017545917</v>
+        <v>0.2125741928971198</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1399</v>
@@ -5108,19 +5108,19 @@
         <v>1508335</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1440073</v>
+        <v>1443493</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1579680</v>
+        <v>1575578</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2173560323070296</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2075191638414113</v>
+        <v>0.2080121017529981</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2276369863659631</v>
+        <v>0.2270459506250737</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>2029471</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1972841</v>
+        <v>1976582</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2086188</v>
+        <v>2090176</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5961871771612097</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5795515135040402</v>
+        <v>0.5806504521319663</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6128487105816893</v>
+        <v>0.6140203452577856</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2234</v>
@@ -5158,19 +5158,19 @@
         <v>2401070</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2349824</v>
+        <v>2348217</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2464451</v>
+        <v>2466491</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6791538331368784</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6646586528308873</v>
+        <v>0.6642041452283788</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6970814771127054</v>
+        <v>0.6976585077208715</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4122</v>
@@ -5179,19 +5179,19 @@
         <v>4430541</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4354648</v>
+        <v>4351466</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4509654</v>
+        <v>4514279</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6384554114487162</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6275189503939853</v>
+        <v>0.6270604656589667</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6498559227765492</v>
+        <v>0.6505223361107215</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>31120</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21826</v>
+        <v>20900</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45755</v>
+        <v>45391</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02770525942020997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01943133865335482</v>
+        <v>0.01860670454643088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04073495794426265</v>
+        <v>0.04041039815592463</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -5544,19 +5544,19 @@
         <v>24654</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16493</v>
+        <v>16973</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34864</v>
+        <v>36276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01957327972848687</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01309432451201064</v>
+        <v>0.01347514433754657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02767972614420666</v>
+        <v>0.02880076162757513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -5565,19 +5565,19 @@
         <v>55773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41931</v>
+        <v>42186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73187</v>
+        <v>73056</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02340665909875513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01759751522196094</v>
+        <v>0.01770434716269988</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03071470651041324</v>
+        <v>0.03065965000691201</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>39320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27347</v>
+        <v>28235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52701</v>
+        <v>52526</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03500595889879241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02434684132508029</v>
+        <v>0.02513729064265468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04691833404645956</v>
+        <v>0.04676277311934236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -5615,19 +5615,19 @@
         <v>40671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29785</v>
+        <v>27680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54666</v>
+        <v>54181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03229009983170274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02364686117460097</v>
+        <v>0.02197595659661944</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04340098918945763</v>
+        <v>0.0430157578266931</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -5636,19 +5636,19 @@
         <v>79992</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63798</v>
+        <v>63817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99426</v>
+        <v>100090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03357034382086739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02677424543960243</v>
+        <v>0.02678215611091792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04172627615143742</v>
+        <v>0.04200525543595467</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>157427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132647</v>
+        <v>134355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>183871</v>
+        <v>183302</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1401540994902272</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1180932946986855</v>
+        <v>0.1196135405805259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1636967689606051</v>
+        <v>0.1631903291214621</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>124</v>
@@ -5686,19 +5686,19 @@
         <v>131415</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>107997</v>
+        <v>110026</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154570</v>
+        <v>154510</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1043339115866394</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08574184145798663</v>
+        <v>0.0873523386262027</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1227174295654785</v>
+        <v>0.1226696233276604</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>270</v>
@@ -5707,19 +5707,19 @@
         <v>288842</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261688</v>
+        <v>256155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>326632</v>
+        <v>322493</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1212193902221192</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.109823463186302</v>
+        <v>0.1075016410344058</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1370788573287831</v>
+        <v>0.1353416284915781</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>336670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>305768</v>
+        <v>305217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>366532</v>
+        <v>365033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2997303608474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2722187727129063</v>
+        <v>0.271728283219711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3263161351325858</v>
+        <v>0.3249812125636993</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>365</v>
@@ -5757,19 +5757,19 @@
         <v>383751</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>353126</v>
+        <v>352848</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>417708</v>
+        <v>415279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3046707514801026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2803562609497867</v>
+        <v>0.2801360807719561</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3316298677107705</v>
+        <v>0.3297015745864255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>689</v>
@@ -5778,19 +5778,19 @@
         <v>720421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>678072</v>
+        <v>675454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>772295</v>
+        <v>764089</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3023418731195547</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2845689331794772</v>
+        <v>0.2834700596691441</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3241118211915006</v>
+        <v>0.3206678428241421</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>558706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>524366</v>
+        <v>523416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>590312</v>
+        <v>592785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4974043213433704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4668319097378987</v>
+        <v>0.4659860991075438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5255423529054922</v>
+        <v>0.5277438657186018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>635</v>
@@ -5828,19 +5828,19 @@
         <v>679070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>641319</v>
+        <v>641605</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>711376</v>
+        <v>715025</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5391319573730684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5091611089130683</v>
+        <v>0.509387737162577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5647805874598704</v>
+        <v>0.5676780351923773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1162</v>
@@ -5849,19 +5849,19 @@
         <v>1237775</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1182825</v>
+        <v>1189216</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1285713</v>
+        <v>1286298</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5194617337387035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4964003308268034</v>
+        <v>0.4990826962700195</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.539579831507198</v>
+        <v>0.5398252123922818</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>17148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10278</v>
+        <v>10377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25832</v>
+        <v>27888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01888859746683168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01132136468262131</v>
+        <v>0.01143085149701308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02845390178674474</v>
+        <v>0.03071895565088227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5974,19 +5974,19 @@
         <v>14109</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7959</v>
+        <v>8242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22852</v>
+        <v>22667</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01403189879017037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007916093908260818</v>
+        <v>0.008197308587910155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02272769351767112</v>
+        <v>0.02254351153844242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -5995,19 +5995,19 @@
         <v>31256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21422</v>
+        <v>22090</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43517</v>
+        <v>43603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01633634313953902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01119642647890101</v>
+        <v>0.01154569116078443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02274457459412167</v>
+        <v>0.02278923294563467</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>33870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23957</v>
+        <v>23721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47550</v>
+        <v>47700</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03730869500213023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02638861112176358</v>
+        <v>0.02612892895226858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05237723082389628</v>
+        <v>0.05254237005423714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -6045,19 +6045,19 @@
         <v>33621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23651</v>
+        <v>23167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46900</v>
+        <v>46395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03343807119435432</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02352257043256615</v>
+        <v>0.02304071051259643</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04664473054967976</v>
+        <v>0.04614247866109051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>64</v>
@@ -6066,19 +6066,19 @@
         <v>67491</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52528</v>
+        <v>53236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86195</v>
+        <v>86256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03527463503250716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02745429474056069</v>
+        <v>0.02782432890985107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04505019056292291</v>
+        <v>0.04508250877272651</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>118957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>100274</v>
+        <v>101253</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144111</v>
+        <v>140374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1310334422053675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1104532220097732</v>
+        <v>0.1115318643578245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1587407578794137</v>
+        <v>0.1546247183974238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -6116,19 +6116,19 @@
         <v>124245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>103994</v>
+        <v>106956</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>144375</v>
+        <v>150146</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1235695214088094</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1034290351268094</v>
+        <v>0.1063748022420889</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1435909262249036</v>
+        <v>0.149330485057785</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>231</v>
@@ -6137,19 +6137,19 @@
         <v>243202</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>216288</v>
+        <v>212286</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>274167</v>
+        <v>271659</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1271110608883778</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1130446507942938</v>
+        <v>0.1109526472455252</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1432955212612903</v>
+        <v>0.1419844935261408</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>300551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>271897</v>
+        <v>272448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>328714</v>
+        <v>329164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3310623187352706</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2994993897818279</v>
+        <v>0.3001067286350602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3620848980593846</v>
+        <v>0.3625804519179667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -6187,19 +6187,19 @@
         <v>265419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>237503</v>
+        <v>238755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297848</v>
+        <v>292734</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2639764950814141</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2362128748304813</v>
+        <v>0.2374581990326135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2962297336715681</v>
+        <v>0.2911432847391187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>548</v>
@@ -6208,19 +6208,19 @@
         <v>565970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>527668</v>
+        <v>528650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>610182</v>
+        <v>606305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2958079010495822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2757890795794415</v>
+        <v>0.2763023956176504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3189158404925169</v>
+        <v>0.3168894941786883</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>437312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>406086</v>
+        <v>408190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>467171</v>
+        <v>472354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4817069465904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4473106986350042</v>
+        <v>0.4496291030671011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5145968504939247</v>
+        <v>0.5203060796319918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>527</v>
@@ -6258,19 +6258,19 @@
         <v>568071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>534119</v>
+        <v>537382</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>599109</v>
+        <v>600384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5649840135252517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5312172091785792</v>
+        <v>0.5344624396376234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5958538648367706</v>
+        <v>0.5971220200809113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>956</v>
@@ -6279,19 +6279,19 @@
         <v>1005382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>959215</v>
+        <v>963231</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1048193</v>
+        <v>1049495</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5254700598899938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5013402159282941</v>
+        <v>0.5034395473579868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5478451021406231</v>
+        <v>0.5485256155340092</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>17010</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9755</v>
+        <v>10240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26798</v>
+        <v>26167</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02064883853893971</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01184213815417821</v>
+        <v>0.01243140767989855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03253195075474719</v>
+        <v>0.03176552786156849</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -6404,19 +6404,19 @@
         <v>13972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7645</v>
+        <v>7234</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23244</v>
+        <v>23651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01814626721540912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009928715374106865</v>
+        <v>0.009395418564320721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0301871975798846</v>
+        <v>0.03071664782054926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -6425,19 +6425,19 @@
         <v>30982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21759</v>
+        <v>21550</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45040</v>
+        <v>44137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01943977643113939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01365255492382126</v>
+        <v>0.01352190246346814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02826058327505457</v>
+        <v>0.02769417444801288</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>37557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26616</v>
+        <v>26920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51406</v>
+        <v>51373</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04559245917651714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0323109388702907</v>
+        <v>0.03267998306731813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06240415916769496</v>
+        <v>0.06236380875781718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -6475,19 +6475,19 @@
         <v>27778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19023</v>
+        <v>19027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40170</v>
+        <v>40900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03607643631178498</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02470556607785816</v>
+        <v>0.02471135478637669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05217046647089588</v>
+        <v>0.05311864094728579</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -6496,19 +6496,19 @@
         <v>65335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51442</v>
+        <v>50001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84319</v>
+        <v>82832</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04099500273060957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03227774310695466</v>
+        <v>0.0313735592101114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05290635771355945</v>
+        <v>0.05197367970310088</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>113313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92969</v>
+        <v>93481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>137241</v>
+        <v>133475</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.137555555383152</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1128591079560838</v>
+        <v>0.1134807636630498</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1666034369973111</v>
+        <v>0.1620319609163596</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>95</v>
@@ -6546,19 +6546,19 @@
         <v>96773</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79938</v>
+        <v>77654</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117536</v>
+        <v>117779</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1256825732539015</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1038178669654872</v>
+        <v>0.1008520376759139</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1526486528596709</v>
+        <v>0.1529637151530677</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>197</v>
@@ -6567,19 +6567,19 @@
         <v>210086</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>182221</v>
+        <v>180782</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>238635</v>
+        <v>235808</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1318193860823645</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1143357882740423</v>
+        <v>0.1134323628509401</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1497328025803499</v>
+        <v>0.1479588214038968</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>244974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>220648</v>
+        <v>220112</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>271202</v>
+        <v>273072</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2973852034143182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2678550898708546</v>
+        <v>0.2672044211458824</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3292249155985817</v>
+        <v>0.3314953156494423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>228</v>
@@ -6617,19 +6617,19 @@
         <v>238223</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>211413</v>
+        <v>214136</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>268530</v>
+        <v>265797</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3093879211034656</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2745697289664238</v>
+        <v>0.2781058285438575</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.348749162889008</v>
+        <v>0.3452001602197121</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>465</v>
@@ -6638,19 +6638,19 @@
         <v>483196</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>444106</v>
+        <v>448074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>519388</v>
+        <v>521185</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3031840515878438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2786568153041865</v>
+        <v>0.2811466014170957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3258928335327689</v>
+        <v>0.3270204306807949</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>410906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>383842</v>
+        <v>382390</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>441399</v>
+        <v>439916</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.498817943487073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.46596351558454</v>
+        <v>0.4642011197088847</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5358351587498017</v>
+        <v>0.5340350920244155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>363</v>
@@ -6688,19 +6688,19 @@
         <v>393234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>363199</v>
+        <v>362319</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>420729</v>
+        <v>419668</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5107068021154388</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4716989160895574</v>
+        <v>0.4705564851379443</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5464158721770036</v>
+        <v>0.5450370101057309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>761</v>
@@ -6709,19 +6709,19 @@
         <v>804140</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>763739</v>
+        <v>761563</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>848109</v>
+        <v>844781</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5045617831680428</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4792121461393788</v>
+        <v>0.477846549957705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5321505433120087</v>
+        <v>0.5300622048945283</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>21234</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13523</v>
+        <v>13431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31735</v>
+        <v>32800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.041993980794557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02674505015455408</v>
+        <v>0.02656191195514333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06276265707437169</v>
+        <v>0.06486847734565609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -6834,19 +6834,19 @@
         <v>16839</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9962</v>
+        <v>9989</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26137</v>
+        <v>26654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03453461585485787</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02043045518600545</v>
+        <v>0.02048584417613876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05360421573125052</v>
+        <v>0.05466444890255766</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -6855,19 +6855,19 @@
         <v>38073</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26889</v>
+        <v>26567</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52899</v>
+        <v>52174</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03833208517089348</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0270719952350716</v>
+        <v>0.02674821007839591</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0532599066984516</v>
+        <v>0.05252919979217967</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>18693</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11862</v>
+        <v>11488</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29863</v>
+        <v>29912</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03696896783582001</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02345962838664113</v>
+        <v>0.02271959804561659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05905933857633115</v>
+        <v>0.05915639954748174</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -6905,19 +6905,19 @@
         <v>12037</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6176</v>
+        <v>6337</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20972</v>
+        <v>21104</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02468663046445966</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01266711545922192</v>
+        <v>0.01299602500283356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04301230872902773</v>
+        <v>0.04328165226774791</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -6926,19 +6926,19 @@
         <v>30730</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20244</v>
+        <v>21595</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43146</v>
+        <v>43527</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03093941467249703</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02038202115463428</v>
+        <v>0.02174205383647307</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04344039517985594</v>
+        <v>0.04382379698783845</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>66536</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52210</v>
+        <v>52203</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82611</v>
+        <v>81506</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1315872628418225</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1032558567322108</v>
+        <v>0.1032412840148812</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1633793617676774</v>
+        <v>0.1611927007115924</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -6976,19 +6976,19 @@
         <v>47785</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35649</v>
+        <v>36156</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63574</v>
+        <v>63352</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09800152578334302</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07311285631451685</v>
+        <v>0.07415315884699519</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1303847740222508</v>
+        <v>0.1299290504304576</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>109</v>
@@ -6997,19 +6997,19 @@
         <v>114320</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>94661</v>
+        <v>94116</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>134443</v>
+        <v>134304</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1150996041006053</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09530574547649377</v>
+        <v>0.09475758178763023</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.135358865640015</v>
+        <v>0.1352189581776103</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>116739</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98288</v>
+        <v>99088</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>136694</v>
+        <v>136434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2308729757401669</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1943819146926848</v>
+        <v>0.1959654685212157</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2703367996946084</v>
+        <v>0.269822813058399</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -7047,19 +7047,19 @@
         <v>81295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66283</v>
+        <v>67348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97977</v>
+        <v>98962</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1667291360013135</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1359401375532852</v>
+        <v>0.1381234260948143</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2009416051280107</v>
+        <v>0.2029612091279196</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>189</v>
@@ -7068,19 +7068,19 @@
         <v>198034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>174230</v>
+        <v>173965</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>224804</v>
+        <v>223543</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1993839618732364</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.175416897358274</v>
+        <v>0.1751501614150665</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2263359931505667</v>
+        <v>0.2250666856883255</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>282440</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>259027</v>
+        <v>258963</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>305024</v>
+        <v>306833</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5585768127876336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5122731250141718</v>
+        <v>0.512146294834386</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6032409721697036</v>
+        <v>0.6068188738066682</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>301</v>
@@ -7118,19 +7118,19 @@
         <v>329634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>307676</v>
+        <v>309841</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>350911</v>
+        <v>350492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6760480918960259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6310147254548812</v>
+        <v>0.6354537483896154</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7196853519227042</v>
+        <v>0.7188245988529554</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>561</v>
@@ -7139,19 +7139,19 @@
         <v>612074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>581470</v>
+        <v>582212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>644180</v>
+        <v>643431</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6162449341827678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5854331187839507</v>
+        <v>0.5861796397197774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6485704896430885</v>
+        <v>0.6478163910913889</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>86511</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>69907</v>
+        <v>69450</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>107685</v>
+        <v>106802</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02574365962342584</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02080260251779208</v>
+        <v>0.0206666575524621</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03204445038308031</v>
+        <v>0.03178186446992476</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -7264,19 +7264,19 @@
         <v>69573</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>54779</v>
+        <v>55820</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>88583</v>
+        <v>88352</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01975058333930612</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01555066169096029</v>
+        <v>0.01584626399013364</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02514722474334237</v>
+        <v>0.02508159215384958</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>148</v>
@@ -7285,19 +7285,19 @@
         <v>156084</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>130591</v>
+        <v>130925</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>180072</v>
+        <v>182493</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02267654663417653</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01897279993971514</v>
+        <v>0.01902134734985141</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02616160751213114</v>
+        <v>0.02651324011488723</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>129441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>108016</v>
+        <v>109409</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>152774</v>
+        <v>155168</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03851849613296161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03214304619458239</v>
+        <v>0.03255751554470199</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04546200443651181</v>
+        <v>0.04617441088085042</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>110</v>
@@ -7335,19 +7335,19 @@
         <v>114107</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>94059</v>
+        <v>93337</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>136025</v>
+        <v>138184</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03239294255272859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02670151214222174</v>
+        <v>0.02649678420475433</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03861504308804684</v>
+        <v>0.03922779020220174</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>231</v>
@@ -7356,19 +7356,19 @@
         <v>243548</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>215251</v>
+        <v>211769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>276258</v>
+        <v>277011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03538358443459751</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03127246679328607</v>
+        <v>0.03076661276204683</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04013580763827683</v>
+        <v>0.04024522245960695</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>456233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>415334</v>
+        <v>420354</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>496773</v>
+        <v>502119</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1357641335053579</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1235935825374841</v>
+        <v>0.1250875136771007</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1478280421990453</v>
+        <v>0.1494186557139091</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>385</v>
@@ -7406,19 +7406,19 @@
         <v>400217</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>362954</v>
+        <v>362486</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>440035</v>
+        <v>443021</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1136143269939293</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1030359106501177</v>
+        <v>0.102903158831327</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1249178261180611</v>
+        <v>0.1257655024137268</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>807</v>
@@ -7427,19 +7427,19 @@
         <v>856450</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>799673</v>
+        <v>801354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>915116</v>
+        <v>914024</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1244283927205165</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1161795963316502</v>
+        <v>0.1164237727819397</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1329516480203684</v>
+        <v>0.1327929534255555</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>998934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>950018</v>
+        <v>941988</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1057134</v>
+        <v>1057292</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2972590896494507</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2827029189921616</v>
+        <v>0.2803133050284225</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3145779524340797</v>
+        <v>0.3146251389852872</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>929</v>
@@ -7477,19 +7477,19 @@
         <v>968688</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>913911</v>
+        <v>915788</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1022400</v>
+        <v>1024580</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2749928029610992</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2594425604889686</v>
+        <v>0.25997546359472</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2902407503069591</v>
+        <v>0.2908596891780413</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1891</v>
@@ -7498,19 +7498,19 @@
         <v>1967622</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1888540</v>
+        <v>1893689</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2042923</v>
+        <v>2047863</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2858637370981819</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2743744877913545</v>
+        <v>0.2751225347907428</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2968037601702865</v>
+        <v>0.2975215168941092</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>1689363</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1631545</v>
+        <v>1629400</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1744512</v>
+        <v>1749095</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.502714621088804</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4855093648203165</v>
+        <v>0.4848710241383922</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5191254682800421</v>
+        <v>0.5204893495443425</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1826</v>
@@ -7548,19 +7548,19 @@
         <v>1970008</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1911793</v>
+        <v>1911594</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2029780</v>
+        <v>2032507</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5592493441529368</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5427232945125651</v>
+        <v>0.542666632349024</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5762174693512273</v>
+        <v>0.5769917087410549</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3440</v>
@@ -7569,19 +7569,19 @@
         <v>3659372</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3569864</v>
+        <v>3576801</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3744470</v>
+        <v>3741165</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5316477391125276</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5186437435440775</v>
+        <v>0.5196515556692066</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5440110875653983</v>
+        <v>0.5435309120630227</v>
       </c>
     </row>
     <row r="33">
